--- a/biology/Médecine/Petit_foramen_ischiatique/Petit_foramen_ischiatique.xlsx
+++ b/biology/Médecine/Petit_foramen_ischiatique/Petit_foramen_ischiatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit foramen ischiatique est un orifice ostéo-fibreux de la face postéro-latérale du bassin.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit foramen ischiatique est situé à l'arrière du bord postérieur du corps de l'ischion en dessous du grand foramen ischiatique.
 Il est limité à l'avant par le bord osseux de la petite incisure ischiatique, en haut par l'épine ischiatique qui le sépare du grand foramen ischiatique, et en bas et en avant par la tubérosité ischiatique.
